--- a/data/pca/factorExposure/factorExposure_2016-06-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01054282204438548</v>
+        <v>0.01276100450839782</v>
       </c>
       <c r="C2">
-        <v>-0.05113610271234802</v>
+        <v>0.04097325128148282</v>
       </c>
       <c r="D2">
-        <v>0.03594346168668144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06223194479204119</v>
+      </c>
+      <c r="E2">
+        <v>0.07214606395093841</v>
+      </c>
+      <c r="F2">
+        <v>0.05845235556087554</v>
+      </c>
+      <c r="G2">
+        <v>-0.04010021460041287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04367530189587437</v>
+        <v>0.02864363451619025</v>
       </c>
       <c r="C3">
-        <v>-0.1207209243935263</v>
+        <v>0.07912406622354935</v>
       </c>
       <c r="D3">
-        <v>0.09918012744644036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08929178068459467</v>
+      </c>
+      <c r="E3">
+        <v>0.06666113473103347</v>
+      </c>
+      <c r="F3">
+        <v>-0.02167228104119161</v>
+      </c>
+      <c r="G3">
+        <v>0.03287027932847523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06056195946394929</v>
+        <v>0.05763925048036243</v>
       </c>
       <c r="C4">
-        <v>-0.06012749145085858</v>
+        <v>0.06459190511284983</v>
       </c>
       <c r="D4">
-        <v>0.03384617169187469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06031696350602517</v>
+      </c>
+      <c r="E4">
+        <v>0.07441740441625908</v>
+      </c>
+      <c r="F4">
+        <v>0.07266388417527903</v>
+      </c>
+      <c r="G4">
+        <v>0.03812222356576295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0396791467713047</v>
+        <v>0.03552741405630781</v>
       </c>
       <c r="C6">
-        <v>-0.04075758966903897</v>
+        <v>0.03172721090623836</v>
       </c>
       <c r="D6">
-        <v>0.03011158715983191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06415525467349935</v>
+      </c>
+      <c r="E6">
+        <v>0.0768769033559132</v>
+      </c>
+      <c r="F6">
+        <v>0.04994507086031367</v>
+      </c>
+      <c r="G6">
+        <v>0.02319653943502998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02141042791960608</v>
+        <v>0.01837218284611654</v>
       </c>
       <c r="C7">
-        <v>-0.04498983482644759</v>
+        <v>0.03875776125346327</v>
       </c>
       <c r="D7">
-        <v>-0.004014864692672373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03919975716284384</v>
+      </c>
+      <c r="E7">
+        <v>0.05377282145999036</v>
+      </c>
+      <c r="F7">
+        <v>0.09330161241958741</v>
+      </c>
+      <c r="G7">
+        <v>0.01136417918582075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004283646971299159</v>
+        <v>0.003165319540381456</v>
       </c>
       <c r="C8">
-        <v>-0.03180668339389944</v>
+        <v>0.03020973072341784</v>
       </c>
       <c r="D8">
-        <v>0.02174716736707158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03192882290863421</v>
+      </c>
+      <c r="E8">
+        <v>0.05104828116264428</v>
+      </c>
+      <c r="F8">
+        <v>0.03035221341326854</v>
+      </c>
+      <c r="G8">
+        <v>0.008519860748321603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03329884468303963</v>
+        <v>0.03676183515457039</v>
       </c>
       <c r="C9">
-        <v>-0.04654656816573483</v>
+        <v>0.05176356519698749</v>
       </c>
       <c r="D9">
-        <v>0.01683964586802692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04326572884745531</v>
+      </c>
+      <c r="E9">
+        <v>0.06268573268090262</v>
+      </c>
+      <c r="F9">
+        <v>0.07793893845920707</v>
+      </c>
+      <c r="G9">
+        <v>0.02441451484911992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07895814317722374</v>
+        <v>0.1001308997273065</v>
       </c>
       <c r="C10">
-        <v>0.1924001563028856</v>
+        <v>-0.196914448849225</v>
       </c>
       <c r="D10">
-        <v>-0.002432482799221146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002817227616303522</v>
+      </c>
+      <c r="E10">
+        <v>0.04716279930379459</v>
+      </c>
+      <c r="F10">
+        <v>0.03563114677402527</v>
+      </c>
+      <c r="G10">
+        <v>0.01051370835440799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04060253369229368</v>
+        <v>0.0364160739018865</v>
       </c>
       <c r="C11">
-        <v>-0.05562673316362463</v>
+        <v>0.05098611978508936</v>
       </c>
       <c r="D11">
-        <v>0.0168752280003365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03491374076968469</v>
+      </c>
+      <c r="E11">
+        <v>0.02025429085412259</v>
+      </c>
+      <c r="F11">
+        <v>0.06277767772741424</v>
+      </c>
+      <c r="G11">
+        <v>0.01725671943354438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04068494252703482</v>
+        <v>0.0376880283819177</v>
       </c>
       <c r="C12">
-        <v>-0.04922747732788618</v>
+        <v>0.04739565317987055</v>
       </c>
       <c r="D12">
-        <v>0.005003582198418181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02759574315407379</v>
+      </c>
+      <c r="E12">
+        <v>0.02755729160438404</v>
+      </c>
+      <c r="F12">
+        <v>0.06192856883260766</v>
+      </c>
+      <c r="G12">
+        <v>0.01424508473779506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01392970833665467</v>
+        <v>0.01188489029827767</v>
       </c>
       <c r="C13">
-        <v>-0.05664729586117714</v>
+        <v>0.04650319622930202</v>
       </c>
       <c r="D13">
-        <v>0.01791771791057583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05759876713739987</v>
+      </c>
+      <c r="E13">
+        <v>0.0888725730601513</v>
+      </c>
+      <c r="F13">
+        <v>0.08578900488554624</v>
+      </c>
+      <c r="G13">
+        <v>0.02044932371586612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006514639752382926</v>
+        <v>0.004570512832960856</v>
       </c>
       <c r="C14">
-        <v>-0.03892690843482893</v>
+        <v>0.03391392216264211</v>
       </c>
       <c r="D14">
-        <v>-0.01234276028487609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02543332170549968</v>
+      </c>
+      <c r="E14">
+        <v>0.04230314372566687</v>
+      </c>
+      <c r="F14">
+        <v>0.08740809239395669</v>
+      </c>
+      <c r="G14">
+        <v>-0.002331280911847173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002788545246346004</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005132905263013385</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007018481954441732</v>
+      </c>
+      <c r="E15">
+        <v>0.002843585252290424</v>
+      </c>
+      <c r="F15">
+        <v>0.005564424214826795</v>
+      </c>
+      <c r="G15">
+        <v>-9.95909444431315e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03691166631515959</v>
+        <v>0.03427247513152131</v>
       </c>
       <c r="C16">
-        <v>-0.04855676931746742</v>
+        <v>0.04582255031000711</v>
       </c>
       <c r="D16">
-        <v>0.01061721867488448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0282193495134726</v>
+      </c>
+      <c r="E16">
+        <v>0.03406900168763153</v>
+      </c>
+      <c r="F16">
+        <v>0.0631037044187531</v>
+      </c>
+      <c r="G16">
+        <v>0.002888112047098239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02133378248818639</v>
+        <v>0.01639672762990933</v>
       </c>
       <c r="C19">
-        <v>-0.066469773629988</v>
+        <v>0.05059583790098783</v>
       </c>
       <c r="D19">
-        <v>0.0819767014936649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09194641150314221</v>
+      </c>
+      <c r="E19">
+        <v>0.09954338372668414</v>
+      </c>
+      <c r="F19">
+        <v>0.06290992118526996</v>
+      </c>
+      <c r="G19">
+        <v>-0.02567326081694436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01651971369117617</v>
+        <v>0.01361891217717311</v>
       </c>
       <c r="C20">
-        <v>-0.04985730985829886</v>
+        <v>0.04171776021685579</v>
       </c>
       <c r="D20">
-        <v>0.01486354884108169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04006663702635043</v>
+      </c>
+      <c r="E20">
+        <v>0.07244730837303504</v>
+      </c>
+      <c r="F20">
+        <v>0.07001374536217446</v>
+      </c>
+      <c r="G20">
+        <v>0.007493932873879462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01029058841219461</v>
+        <v>0.009414462790042662</v>
       </c>
       <c r="C21">
-        <v>-0.05110605561158221</v>
+        <v>0.04464408005305327</v>
       </c>
       <c r="D21">
-        <v>0.03737319427749911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06769254251808718</v>
+      </c>
+      <c r="E21">
+        <v>0.1086247229991352</v>
+      </c>
+      <c r="F21">
+        <v>0.1067754585679779</v>
+      </c>
+      <c r="G21">
+        <v>0.008378522871954952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.000564958815545255</v>
+        <v>0.002572689601949948</v>
       </c>
       <c r="C22">
-        <v>-0.0005943172178309461</v>
+        <v>0.02488107527542056</v>
       </c>
       <c r="D22">
-        <v>0.001602900683349072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03970172654775567</v>
+      </c>
+      <c r="E22">
+        <v>0.03156070647533405</v>
+      </c>
+      <c r="F22">
+        <v>0.00868636973057448</v>
+      </c>
+      <c r="G22">
+        <v>0.0400088818130903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0005704909525311775</v>
+        <v>0.002644391007550418</v>
       </c>
       <c r="C23">
-        <v>-0.0005946258946500484</v>
+        <v>0.02502749709392204</v>
       </c>
       <c r="D23">
-        <v>0.001610198851469835</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0393681803624772</v>
+      </c>
+      <c r="E23">
+        <v>0.03183793828961772</v>
+      </c>
+      <c r="F23">
+        <v>0.008462464014961896</v>
+      </c>
+      <c r="G23">
+        <v>0.04021146152699562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03322424824826475</v>
+        <v>0.03395408066750944</v>
       </c>
       <c r="C24">
-        <v>-0.05128598425928422</v>
+        <v>0.05341791995330789</v>
       </c>
       <c r="D24">
-        <v>0.01037873860692801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02803526693162408</v>
+      </c>
+      <c r="E24">
+        <v>0.03442189125282143</v>
+      </c>
+      <c r="F24">
+        <v>0.06942779899104415</v>
+      </c>
+      <c r="G24">
+        <v>0.01081453680396506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04714347242841645</v>
+        <v>0.04401713627330874</v>
       </c>
       <c r="C25">
-        <v>-0.06197995108029217</v>
+        <v>0.05753277525797994</v>
       </c>
       <c r="D25">
-        <v>0.00175936131281505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02650096309629977</v>
+      </c>
+      <c r="E25">
+        <v>0.02697253391260038</v>
+      </c>
+      <c r="F25">
+        <v>0.07310679931572175</v>
+      </c>
+      <c r="G25">
+        <v>0.02798153535060514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01505895359719743</v>
+        <v>0.01465575366048438</v>
       </c>
       <c r="C26">
-        <v>-0.01898022257817241</v>
+        <v>0.01846010083040192</v>
       </c>
       <c r="D26">
-        <v>-9.314747974637734e-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02512551703488972</v>
+      </c>
+      <c r="E26">
+        <v>0.04296024090558789</v>
+      </c>
+      <c r="F26">
+        <v>0.0633009252263846</v>
+      </c>
+      <c r="G26">
+        <v>-0.0109543269001286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09518073377392931</v>
+        <v>0.134827638263631</v>
       </c>
       <c r="C28">
-        <v>0.2384997262674278</v>
+        <v>-0.2480491096869109</v>
       </c>
       <c r="D28">
-        <v>-0.004269409389711106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01772293824402483</v>
+      </c>
+      <c r="E28">
+        <v>0.06212980832702805</v>
+      </c>
+      <c r="F28">
+        <v>0.05307390477943205</v>
+      </c>
+      <c r="G28">
+        <v>0.02167428969965531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006931244900172168</v>
+        <v>0.006014681330333447</v>
       </c>
       <c r="C29">
-        <v>-0.03209584203514295</v>
+        <v>0.0300538573493996</v>
       </c>
       <c r="D29">
-        <v>-0.01574630863448788</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01965973078641275</v>
+      </c>
+      <c r="E29">
+        <v>0.04283011816872576</v>
+      </c>
+      <c r="F29">
+        <v>0.08168336694621167</v>
+      </c>
+      <c r="G29">
+        <v>0.01106176949876574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04692405830223598</v>
+        <v>0.0419535398093606</v>
       </c>
       <c r="C30">
-        <v>-0.06513128623663901</v>
+        <v>0.06449263784724514</v>
       </c>
       <c r="D30">
-        <v>0.07825706567596194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1088444392141437</v>
+      </c>
+      <c r="E30">
+        <v>0.06624654356287527</v>
+      </c>
+      <c r="F30">
+        <v>0.07900825250297455</v>
+      </c>
+      <c r="G30">
+        <v>-0.01203835059312559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05389584043673781</v>
+        <v>0.05581250678977608</v>
       </c>
       <c r="C31">
-        <v>-0.04036640888287505</v>
+        <v>0.05812264627643366</v>
       </c>
       <c r="D31">
-        <v>-0.02797422980748555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01067622982458784</v>
+      </c>
+      <c r="E31">
+        <v>0.06565266801466228</v>
+      </c>
+      <c r="F31">
+        <v>0.06376474386889207</v>
+      </c>
+      <c r="G31">
+        <v>0.04932548606403536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001812693052219088</v>
+        <v>0.004967328280416665</v>
       </c>
       <c r="C32">
-        <v>-0.03699684115855488</v>
+        <v>0.03326339671659365</v>
       </c>
       <c r="D32">
-        <v>0.04304745783845406</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05412128888792585</v>
+      </c>
+      <c r="E32">
+        <v>0.04593148977364943</v>
+      </c>
+      <c r="F32">
+        <v>0.06209556881830661</v>
+      </c>
+      <c r="G32">
+        <v>-0.008052926163862658</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02672082214331915</v>
+        <v>0.02410773547906555</v>
       </c>
       <c r="C33">
-        <v>-0.06221820871693692</v>
+        <v>0.05573869954031761</v>
       </c>
       <c r="D33">
-        <v>0.04755728983675119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08065693422742488</v>
+      </c>
+      <c r="E33">
+        <v>0.07776475828834636</v>
+      </c>
+      <c r="F33">
+        <v>0.1092875805312351</v>
+      </c>
+      <c r="G33">
+        <v>0.02299170278379626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04547727701988467</v>
+        <v>0.04149496925334698</v>
       </c>
       <c r="C34">
-        <v>-0.06577826636601328</v>
+        <v>0.06438239949555294</v>
       </c>
       <c r="D34">
-        <v>0.01495042133505017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0356608600470194</v>
+      </c>
+      <c r="E34">
+        <v>0.007222727880306619</v>
+      </c>
+      <c r="F34">
+        <v>0.07538204192199414</v>
+      </c>
+      <c r="G34">
+        <v>0.01306138681334265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01406083441941894</v>
+        <v>0.01352270358981302</v>
       </c>
       <c r="C36">
-        <v>-0.01578925100637022</v>
+        <v>0.01322782931717517</v>
       </c>
       <c r="D36">
-        <v>-0.001286813219324468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02711498907365425</v>
+      </c>
+      <c r="E36">
+        <v>0.05183369784571597</v>
+      </c>
+      <c r="F36">
+        <v>0.06778198236525301</v>
+      </c>
+      <c r="G36">
+        <v>0.01143362152217327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0303406809423689</v>
+        <v>0.02412896661522848</v>
       </c>
       <c r="C38">
-        <v>-0.02996525912717446</v>
+        <v>0.02423982195946528</v>
       </c>
       <c r="D38">
-        <v>-0.006022760630756105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02787576700527036</v>
+      </c>
+      <c r="E38">
+        <v>0.04606603564719707</v>
+      </c>
+      <c r="F38">
+        <v>0.05638176666599572</v>
+      </c>
+      <c r="G38">
+        <v>0.002985714318769886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04516228329323672</v>
+        <v>0.04045033014543641</v>
       </c>
       <c r="C39">
-        <v>-0.07052911603175785</v>
+        <v>0.06767485342168503</v>
       </c>
       <c r="D39">
-        <v>0.02336086422745612</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05598059258032614</v>
+      </c>
+      <c r="E39">
+        <v>0.0395557154722484</v>
+      </c>
+      <c r="F39">
+        <v>0.0812735680558743</v>
+      </c>
+      <c r="G39">
+        <v>-0.01099117933090323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01315438551773054</v>
+        <v>0.01369824608008936</v>
       </c>
       <c r="C40">
-        <v>-0.053099875419716</v>
+        <v>0.03964775532923725</v>
       </c>
       <c r="D40">
-        <v>0.01809693198306088</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03727343569615296</v>
+      </c>
+      <c r="E40">
+        <v>0.07771351990081272</v>
+      </c>
+      <c r="F40">
+        <v>0.06270352225773421</v>
+      </c>
+      <c r="G40">
+        <v>0.04008528371116967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01983404597708718</v>
+        <v>0.01846968723547604</v>
       </c>
       <c r="C41">
-        <v>-0.006987268092282857</v>
+        <v>0.0084220957718686</v>
       </c>
       <c r="D41">
-        <v>-0.001786975541285358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01569539035972251</v>
+      </c>
+      <c r="E41">
+        <v>0.05151308470374739</v>
+      </c>
+      <c r="F41">
+        <v>0.05851456820441437</v>
+      </c>
+      <c r="G41">
+        <v>0.003917186595015499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03608398780097947</v>
+        <v>0.02838240802682164</v>
       </c>
       <c r="C43">
-        <v>-0.02601632412724317</v>
+        <v>0.02284550382468446</v>
       </c>
       <c r="D43">
-        <v>0.02342550527462241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04142981774442381</v>
+      </c>
+      <c r="E43">
+        <v>0.06339004687327243</v>
+      </c>
+      <c r="F43">
+        <v>0.06530411452023256</v>
+      </c>
+      <c r="G43">
+        <v>0.02296195676824221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01334372673808026</v>
+        <v>0.01419940102909481</v>
       </c>
       <c r="C44">
-        <v>-0.06799880262993944</v>
+        <v>0.05196311194578215</v>
       </c>
       <c r="D44">
-        <v>0.01231438425066678</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04159586080434328</v>
+      </c>
+      <c r="E44">
+        <v>0.08346046241433455</v>
+      </c>
+      <c r="F44">
+        <v>0.06734293721740907</v>
+      </c>
+      <c r="G44">
+        <v>-0.005965312996257375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.005723103525720374</v>
+        <v>0.007951263591022609</v>
       </c>
       <c r="C46">
-        <v>-0.02518187265322866</v>
+        <v>0.02780894931122273</v>
       </c>
       <c r="D46">
-        <v>-0.01878314990316134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01259851491957286</v>
+      </c>
+      <c r="E46">
+        <v>0.05182578770776634</v>
+      </c>
+      <c r="F46">
+        <v>0.0946313938371497</v>
+      </c>
+      <c r="G46">
+        <v>0.003650557552490541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08224337056087375</v>
+        <v>0.08779125418177232</v>
       </c>
       <c r="C47">
-        <v>-0.06924709688531507</v>
+        <v>0.08004641160873394</v>
       </c>
       <c r="D47">
-        <v>-0.02785235926873714</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01571907115728071</v>
+      </c>
+      <c r="E47">
+        <v>0.06952451612097833</v>
+      </c>
+      <c r="F47">
+        <v>0.06908055144822786</v>
+      </c>
+      <c r="G47">
+        <v>0.05229863548603925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01800729424452775</v>
+        <v>0.01589288617573072</v>
       </c>
       <c r="C48">
-        <v>-0.01537447625125619</v>
+        <v>0.0175081455275257</v>
       </c>
       <c r="D48">
-        <v>-0.01460999371666427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01703135501291089</v>
+      </c>
+      <c r="E48">
+        <v>0.06308589827441197</v>
+      </c>
+      <c r="F48">
+        <v>0.08386277592065927</v>
+      </c>
+      <c r="G48">
+        <v>0.01020123695724369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07910262630358014</v>
+        <v>0.07105453377391249</v>
       </c>
       <c r="C50">
-        <v>-0.07452323958522905</v>
+        <v>0.07299390586141451</v>
       </c>
       <c r="D50">
-        <v>-0.03006265624018184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003096774682328644</v>
+      </c>
+      <c r="E50">
+        <v>0.07216921293756377</v>
+      </c>
+      <c r="F50">
+        <v>0.04831599575028549</v>
+      </c>
+      <c r="G50">
+        <v>0.07112391719702495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01527819074924489</v>
+        <v>0.01099270637339774</v>
       </c>
       <c r="C51">
-        <v>-0.05254576738996233</v>
+        <v>0.0343079547260506</v>
       </c>
       <c r="D51">
-        <v>0.02788008720693022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05027527888402004</v>
+      </c>
+      <c r="E51">
+        <v>0.04158907621179884</v>
+      </c>
+      <c r="F51">
+        <v>0.07049367729797243</v>
+      </c>
+      <c r="G51">
+        <v>-0.01907046499187577</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08031680992917233</v>
+        <v>0.09392901070148532</v>
       </c>
       <c r="C53">
-        <v>-0.07781929091053875</v>
+        <v>0.08743121311144292</v>
       </c>
       <c r="D53">
-        <v>-0.03952198208067507</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03906022643303543</v>
+      </c>
+      <c r="E53">
+        <v>0.06849232603017195</v>
+      </c>
+      <c r="F53">
+        <v>0.07875183918538869</v>
+      </c>
+      <c r="G53">
+        <v>0.06551315788329265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02995303445265597</v>
+        <v>0.02800950154968829</v>
       </c>
       <c r="C54">
-        <v>-0.02931087395533177</v>
+        <v>0.02817795856354122</v>
       </c>
       <c r="D54">
-        <v>0.004216221037125748</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03137247766130601</v>
+      </c>
+      <c r="E54">
+        <v>0.05053019992698637</v>
+      </c>
+      <c r="F54">
+        <v>0.0922819790562074</v>
+      </c>
+      <c r="G54">
+        <v>0.01190282857737033</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07421626532668862</v>
+        <v>0.08541734245598408</v>
       </c>
       <c r="C55">
-        <v>-0.05840191516473953</v>
+        <v>0.07012072851708984</v>
       </c>
       <c r="D55">
-        <v>-0.04912970254609753</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04743729582004681</v>
+      </c>
+      <c r="E55">
+        <v>0.05228274148308244</v>
+      </c>
+      <c r="F55">
+        <v>0.0555882300022</v>
+      </c>
+      <c r="G55">
+        <v>0.05344874832440484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1436605038273777</v>
+        <v>0.1478782207979511</v>
       </c>
       <c r="C56">
-        <v>-0.0940110851245754</v>
+        <v>0.1051629227668502</v>
       </c>
       <c r="D56">
-        <v>-0.04354203949455545</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04597516581274843</v>
+      </c>
+      <c r="E56">
+        <v>0.05338548944894751</v>
+      </c>
+      <c r="F56">
+        <v>0.04185448060311054</v>
+      </c>
+      <c r="G56">
+        <v>0.05854716181780498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0007313598833284219</v>
+        <v>0.0002570533910927188</v>
       </c>
       <c r="C57">
-        <v>0.002155929458492385</v>
+        <v>-0.001158382472051402</v>
       </c>
       <c r="D57">
-        <v>0.01299842369292572</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01073509469247377</v>
+      </c>
+      <c r="E57">
+        <v>0.00671417766935699</v>
+      </c>
+      <c r="F57">
+        <v>0.008256108903207464</v>
+      </c>
+      <c r="G57">
+        <v>0.0002656510842012522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04791150856578414</v>
+        <v>0.02896293060686225</v>
       </c>
       <c r="C58">
-        <v>-0.03918965970330991</v>
+        <v>0.03293939141729588</v>
       </c>
       <c r="D58">
-        <v>0.6454882871779394</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4134519830468829</v>
+      </c>
+      <c r="E58">
+        <v>0.6215245774980008</v>
+      </c>
+      <c r="F58">
+        <v>-0.5792803723371469</v>
+      </c>
+      <c r="G58">
+        <v>-0.09538499607165074</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1326377320855772</v>
+        <v>0.1429958245282748</v>
       </c>
       <c r="C59">
-        <v>0.1918782245771763</v>
+        <v>-0.1871013718669551</v>
       </c>
       <c r="D59">
-        <v>0.02049310536376685</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02795611537899403</v>
+      </c>
+      <c r="E59">
+        <v>0.0254995152895167</v>
+      </c>
+      <c r="F59">
+        <v>0.02081044849192863</v>
+      </c>
+      <c r="G59">
+        <v>-0.02884842148454077</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3099194915596786</v>
+        <v>0.282960263721669</v>
       </c>
       <c r="C60">
-        <v>-0.09810265680685588</v>
+        <v>0.09787180924655116</v>
       </c>
       <c r="D60">
-        <v>0.1531857981770415</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2236106987429415</v>
+      </c>
+      <c r="E60">
+        <v>-0.2769443944447737</v>
+      </c>
+      <c r="F60">
+        <v>-0.07954351092374157</v>
+      </c>
+      <c r="G60">
+        <v>0.05141771018769999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04210145291091674</v>
+        <v>0.040925217062741</v>
       </c>
       <c r="C61">
-        <v>-0.06666300590004666</v>
+        <v>0.06293919079368122</v>
       </c>
       <c r="D61">
-        <v>0.01710919100950917</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04640156299902131</v>
+      </c>
+      <c r="E61">
+        <v>0.04305506964958241</v>
+      </c>
+      <c r="F61">
+        <v>0.07046395840020273</v>
+      </c>
+      <c r="G61">
+        <v>0.01394486163571542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01479562458665803</v>
+        <v>0.01466439872641409</v>
       </c>
       <c r="C63">
-        <v>-0.03340596770798657</v>
+        <v>0.03155536669497501</v>
       </c>
       <c r="D63">
-        <v>-0.01090330964097621</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02035590059240946</v>
+      </c>
+      <c r="E63">
+        <v>0.05488695427340402</v>
+      </c>
+      <c r="F63">
+        <v>0.06331211774609045</v>
+      </c>
+      <c r="G63">
+        <v>0.02973893043005516</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04869000852909768</v>
+        <v>0.05625885776815736</v>
       </c>
       <c r="C64">
-        <v>-0.04505353717694056</v>
+        <v>0.05598314764921938</v>
       </c>
       <c r="D64">
-        <v>0.005515090710781286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.009505286682465326</v>
+      </c>
+      <c r="E64">
+        <v>0.03695417544663639</v>
+      </c>
+      <c r="F64">
+        <v>0.08270593164051904</v>
+      </c>
+      <c r="G64">
+        <v>0.01342733165293847</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08628291073256802</v>
+        <v>0.06938484858099676</v>
       </c>
       <c r="C65">
-        <v>-0.03588268418490789</v>
+        <v>0.03275402798601919</v>
       </c>
       <c r="D65">
-        <v>0.05144220351515766</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08583693515469952</v>
+      </c>
+      <c r="E65">
+        <v>0.0403456935386644</v>
+      </c>
+      <c r="F65">
+        <v>0.001199926498208237</v>
+      </c>
+      <c r="G65">
+        <v>0.0009784678179145124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06216437321105295</v>
+        <v>0.05265091977463236</v>
       </c>
       <c r="C66">
-        <v>-0.09971506050783033</v>
+        <v>0.08907363758616986</v>
       </c>
       <c r="D66">
-        <v>0.04630648568278627</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08257081389272186</v>
+      </c>
+      <c r="E66">
+        <v>0.04535707915661365</v>
+      </c>
+      <c r="F66">
+        <v>0.08231007269762959</v>
+      </c>
+      <c r="G66">
+        <v>0.00536383639680024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05285183443429965</v>
+        <v>0.04651916813573952</v>
       </c>
       <c r="C67">
-        <v>-0.03338953220752942</v>
+        <v>0.02995719851091532</v>
       </c>
       <c r="D67">
-        <v>-0.007759240737276784</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01467128047315083</v>
+      </c>
+      <c r="E67">
+        <v>0.02575646797649638</v>
+      </c>
+      <c r="F67">
+        <v>0.04800732531561765</v>
+      </c>
+      <c r="G67">
+        <v>0.009512574736249902</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1291988370622079</v>
+        <v>0.1499493468932505</v>
       </c>
       <c r="C68">
-        <v>0.2826566299855863</v>
+        <v>-0.2495893817676584</v>
       </c>
       <c r="D68">
-        <v>-0.01001672544314088</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01723889060443571</v>
+      </c>
+      <c r="E68">
+        <v>0.04380003434092197</v>
+      </c>
+      <c r="F68">
+        <v>0.01383264304174965</v>
+      </c>
+      <c r="G68">
+        <v>0.01136025479021039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08866584735670917</v>
+        <v>0.08728394855491316</v>
       </c>
       <c r="C69">
-        <v>-0.06760906798564699</v>
+        <v>0.08682685161071969</v>
       </c>
       <c r="D69">
-        <v>-0.03755217900913354</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007890418867695316</v>
+      </c>
+      <c r="E69">
+        <v>0.05298378288991826</v>
+      </c>
+      <c r="F69">
+        <v>0.0872810828269986</v>
+      </c>
+      <c r="G69">
+        <v>0.03201696617092355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1188655276400966</v>
+        <v>0.1419137127116042</v>
       </c>
       <c r="C71">
-        <v>0.2491813280996116</v>
+        <v>-0.2368613660797556</v>
       </c>
       <c r="D71">
-        <v>0.02537776933482661</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01276020081384651</v>
+      </c>
+      <c r="E71">
+        <v>0.06813128848819189</v>
+      </c>
+      <c r="F71">
+        <v>0.04987194115135188</v>
+      </c>
+      <c r="G71">
+        <v>0.03798612825502423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08923779574478752</v>
+        <v>0.09873810699887337</v>
       </c>
       <c r="C72">
-        <v>-0.05261282324994315</v>
+        <v>0.05603618335501136</v>
       </c>
       <c r="D72">
-        <v>0.006671511101346811</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02978886465799622</v>
+      </c>
+      <c r="E72">
+        <v>0.02083035818838322</v>
+      </c>
+      <c r="F72">
+        <v>0.0672729902784361</v>
+      </c>
+      <c r="G72">
+        <v>0.03854883804725016</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4072031317585104</v>
+        <v>0.346966888881483</v>
       </c>
       <c r="C73">
-        <v>-0.06282644207092664</v>
+        <v>0.07173731294512142</v>
       </c>
       <c r="D73">
-        <v>0.3801256586303634</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4616344526120232</v>
+      </c>
+      <c r="E73">
+        <v>-0.487706899198722</v>
+      </c>
+      <c r="F73">
+        <v>-0.2272596889186456</v>
+      </c>
+      <c r="G73">
+        <v>0.1009157206203403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1058411336364379</v>
+        <v>0.1107747190147647</v>
       </c>
       <c r="C74">
-        <v>-0.09632648283158424</v>
+        <v>0.09619998208222902</v>
       </c>
       <c r="D74">
-        <v>-0.02274959107225169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02991646790381712</v>
+      </c>
+      <c r="E74">
+        <v>0.06928354395074648</v>
+      </c>
+      <c r="F74">
+        <v>0.04053813209502349</v>
+      </c>
+      <c r="G74">
+        <v>0.07243760903372895</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.252552958268239</v>
+        <v>0.2584144950357377</v>
       </c>
       <c r="C75">
-        <v>-0.1013993969856804</v>
+        <v>0.1282031426370901</v>
       </c>
       <c r="D75">
-        <v>-0.09357240320966034</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1259289255120256</v>
+      </c>
+      <c r="E75">
+        <v>0.0686489357697361</v>
+      </c>
+      <c r="F75">
+        <v>0.01951742968941454</v>
+      </c>
+      <c r="G75">
+        <v>0.07405176263062224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1116162744861035</v>
+        <v>0.1270404459699578</v>
       </c>
       <c r="C76">
-        <v>-0.08881292009377408</v>
+        <v>0.09882012948849871</v>
       </c>
       <c r="D76">
-        <v>-0.05038222634281007</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05716509763854175</v>
+      </c>
+      <c r="E76">
+        <v>0.08181855894155013</v>
+      </c>
+      <c r="F76">
+        <v>0.06224527687003219</v>
+      </c>
+      <c r="G76">
+        <v>0.05704696558642433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07708450253282874</v>
+        <v>0.06110657570826804</v>
       </c>
       <c r="C77">
-        <v>-0.06390860153380409</v>
+        <v>0.0741345796723871</v>
       </c>
       <c r="D77">
-        <v>0.05233019933887421</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06462456119748206</v>
+      </c>
+      <c r="E77">
+        <v>0.09475262636348211</v>
+      </c>
+      <c r="F77">
+        <v>0.1091872340670553</v>
+      </c>
+      <c r="G77">
+        <v>-0.1413623537944597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04787049957350861</v>
+        <v>0.0443942251901327</v>
       </c>
       <c r="C78">
-        <v>-0.05303264330149452</v>
+        <v>0.05963911784982698</v>
       </c>
       <c r="D78">
-        <v>0.02834166617352405</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06624971455783439</v>
+      </c>
+      <c r="E78">
+        <v>0.04835951546814105</v>
+      </c>
+      <c r="F78">
+        <v>0.08351467283351283</v>
+      </c>
+      <c r="G78">
+        <v>0.009249703811252999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02796659559992868</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04174529856907247</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0605966077608606</v>
+      </c>
+      <c r="E79">
+        <v>0.06620064929537459</v>
+      </c>
+      <c r="F79">
+        <v>0.03042631268696004</v>
+      </c>
+      <c r="G79">
+        <v>0.07892370949257785</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04367406544754102</v>
+        <v>0.03334166683550294</v>
       </c>
       <c r="C80">
-        <v>-0.05689297677622779</v>
+        <v>0.05572907200910576</v>
       </c>
       <c r="D80">
-        <v>0.02915506932334842</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04321292688337928</v>
+      </c>
+      <c r="E80">
+        <v>0.01606258770438635</v>
+      </c>
+      <c r="F80">
+        <v>0.03104168440448107</v>
+      </c>
+      <c r="G80">
+        <v>-0.04634455807355229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1412953530845231</v>
+        <v>0.1411346027150941</v>
       </c>
       <c r="C81">
-        <v>-0.07850927836166317</v>
+        <v>0.0947171159779025</v>
       </c>
       <c r="D81">
-        <v>-0.07623481449878945</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0992755070571217</v>
+      </c>
+      <c r="E81">
+        <v>0.08579767958383171</v>
+      </c>
+      <c r="F81">
+        <v>0.006518819936166578</v>
+      </c>
+      <c r="G81">
+        <v>0.05100901602461522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1629928217768338</v>
+        <v>0.205259719681949</v>
       </c>
       <c r="C82">
-        <v>-0.07233263659930445</v>
+        <v>0.1397202002831766</v>
       </c>
       <c r="D82">
-        <v>-0.1566789061997179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2309946201128519</v>
+      </c>
+      <c r="E82">
+        <v>0.01066818967741717</v>
+      </c>
+      <c r="F82">
+        <v>0.1065239239754663</v>
+      </c>
+      <c r="G82">
+        <v>0.05710472662358912</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03955836334156369</v>
+        <v>0.02784162695169526</v>
       </c>
       <c r="C83">
-        <v>-0.0302788439909954</v>
+        <v>0.04259531646139882</v>
       </c>
       <c r="D83">
-        <v>0.0337259105694344</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03304254371004418</v>
+      </c>
+      <c r="E83">
+        <v>0.02071277639658577</v>
+      </c>
+      <c r="F83">
+        <v>0.04089774201536057</v>
+      </c>
+      <c r="G83">
+        <v>-0.01958994145991883</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-4.969952928412858e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>6.973437303768938e-05</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0002032939423442785</v>
+      </c>
+      <c r="E84">
+        <v>4.793693103856249e-05</v>
+      </c>
+      <c r="F84">
+        <v>0.0007576243841096747</v>
+      </c>
+      <c r="G84">
+        <v>0.0004090485205527329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2191954442769157</v>
+        <v>0.2038682266820193</v>
       </c>
       <c r="C85">
-        <v>-0.1017352489623327</v>
+        <v>0.1154926241543505</v>
       </c>
       <c r="D85">
-        <v>-0.120332180345507</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0963324131486322</v>
+      </c>
+      <c r="E85">
+        <v>0.0002041728731779798</v>
+      </c>
+      <c r="F85">
+        <v>-0.008288573932255712</v>
+      </c>
+      <c r="G85">
+        <v>0.1263855898611903</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009856719833470794</v>
+        <v>0.01049406194673006</v>
       </c>
       <c r="C86">
-        <v>-0.04378657629942172</v>
+        <v>0.03121269946206014</v>
       </c>
       <c r="D86">
-        <v>0.04353184655486227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06538383428159369</v>
+      </c>
+      <c r="E86">
+        <v>0.06955929694963262</v>
+      </c>
+      <c r="F86">
+        <v>0.1214757019100446</v>
+      </c>
+      <c r="G86">
+        <v>-0.0123279960589018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02351753272837433</v>
+        <v>0.02208151936700318</v>
       </c>
       <c r="C87">
-        <v>-0.01260158279012436</v>
+        <v>0.01951547013283942</v>
       </c>
       <c r="D87">
-        <v>0.08845101813429432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09046987322271349</v>
+      </c>
+      <c r="E87">
+        <v>0.1152902841266148</v>
+      </c>
+      <c r="F87">
+        <v>0.06078745866520859</v>
+      </c>
+      <c r="G87">
+        <v>-0.04230476799369945</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1056060469808744</v>
+        <v>0.09340178186271487</v>
       </c>
       <c r="C88">
-        <v>-0.07086607144782466</v>
+        <v>0.06324158169249589</v>
       </c>
       <c r="D88">
-        <v>-0.02297871658086454</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.00832628387431327</v>
+      </c>
+      <c r="E88">
+        <v>0.04838569974384461</v>
+      </c>
+      <c r="F88">
+        <v>0.06674731511426184</v>
+      </c>
+      <c r="G88">
+        <v>-0.02615071748026691</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1871029810115621</v>
+        <v>0.2179996159672123</v>
       </c>
       <c r="C89">
-        <v>0.3766427322485583</v>
+        <v>-0.3802744320420937</v>
       </c>
       <c r="D89">
-        <v>-0.01527557443977738</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.007788778597972334</v>
+      </c>
+      <c r="E89">
+        <v>0.06745653763412834</v>
+      </c>
+      <c r="F89">
+        <v>0.07334075051001461</v>
+      </c>
+      <c r="G89">
+        <v>-0.06300629453665983</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.178315097442617</v>
+        <v>0.1976225683330625</v>
       </c>
       <c r="C90">
-        <v>0.3346826007438778</v>
+        <v>-0.3128426350749376</v>
       </c>
       <c r="D90">
-        <v>-0.01798291036424562</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01321960052212952</v>
+      </c>
+      <c r="E90">
+        <v>0.07574483953910394</v>
+      </c>
+      <c r="F90">
+        <v>0.03549543951100299</v>
+      </c>
+      <c r="G90">
+        <v>-0.01414392669517087</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1887109115812574</v>
+        <v>0.186628109325949</v>
       </c>
       <c r="C91">
-        <v>-0.1231167280711107</v>
+        <v>0.1395450111959549</v>
       </c>
       <c r="D91">
-        <v>-0.09406650095446122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1059196799585284</v>
+      </c>
+      <c r="E91">
+        <v>0.06540540046330064</v>
+      </c>
+      <c r="F91">
+        <v>0.03257484509999529</v>
+      </c>
+      <c r="G91">
+        <v>0.05745585071486424</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1638048782475744</v>
+        <v>0.1787905618478345</v>
       </c>
       <c r="C92">
-        <v>0.2827871647339892</v>
+        <v>-0.2868099541802557</v>
       </c>
       <c r="D92">
-        <v>-0.002849527720985177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00816232336239763</v>
+      </c>
+      <c r="E92">
+        <v>0.07486027088860714</v>
+      </c>
+      <c r="F92">
+        <v>0.08216056190971409</v>
+      </c>
+      <c r="G92">
+        <v>-0.008313321880331971</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2026738739362657</v>
+        <v>0.2218293508430593</v>
       </c>
       <c r="C93">
-        <v>0.337502381967887</v>
+        <v>-0.3194177505899555</v>
       </c>
       <c r="D93">
-        <v>-0.01517806645649902</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005441285752826787</v>
+      </c>
+      <c r="E93">
+        <v>0.0510244232589377</v>
+      </c>
+      <c r="F93">
+        <v>0.03809337035760785</v>
+      </c>
+      <c r="G93">
+        <v>0.02791333375940602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3440295266388393</v>
+        <v>0.3463403432085927</v>
       </c>
       <c r="C94">
-        <v>-0.1469391736196459</v>
+        <v>0.1807594036929491</v>
       </c>
       <c r="D94">
-        <v>-0.4906480228015803</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5064221213174979</v>
+      </c>
+      <c r="E94">
+        <v>0.01785040418231881</v>
+      </c>
+      <c r="F94">
+        <v>-0.4479692764847787</v>
+      </c>
+      <c r="G94">
+        <v>-0.3424066949640543</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1130689253067128</v>
+        <v>0.08506467872617472</v>
       </c>
       <c r="C95">
-        <v>-0.07663877779729573</v>
+        <v>0.06646003539864943</v>
       </c>
       <c r="D95">
-        <v>0.1313564367063917</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1681159815023954</v>
+      </c>
+      <c r="E95">
+        <v>-0.1059953856407437</v>
+      </c>
+      <c r="F95">
+        <v>0.2600482609220487</v>
+      </c>
+      <c r="G95">
+        <v>-0.8554472791439222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1936411620425776</v>
+        <v>0.1868861054511563</v>
       </c>
       <c r="C98">
-        <v>-0.02177109776145023</v>
+        <v>0.0399768766833633</v>
       </c>
       <c r="D98">
-        <v>0.1442406120865878</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1836235739576321</v>
+      </c>
+      <c r="E98">
+        <v>-0.1545838132223489</v>
+      </c>
+      <c r="F98">
+        <v>-0.03214943855825279</v>
+      </c>
+      <c r="G98">
+        <v>0.09886910798272339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006885667830229962</v>
+        <v>0.006069586807842181</v>
       </c>
       <c r="C101">
-        <v>-0.03209882110306152</v>
+        <v>0.0297899895614126</v>
       </c>
       <c r="D101">
-        <v>-0.0164105481214399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01912759334429754</v>
+      </c>
+      <c r="E101">
+        <v>0.04348417714444913</v>
+      </c>
+      <c r="F101">
+        <v>0.08135656399043624</v>
+      </c>
+      <c r="G101">
+        <v>0.009940648771616753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1221266534622967</v>
+        <v>0.125204673006124</v>
       </c>
       <c r="C102">
-        <v>-0.07193016822278853</v>
+        <v>0.09837663995860266</v>
       </c>
       <c r="D102">
-        <v>-0.02862356799647098</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04544811919537586</v>
+      </c>
+      <c r="E102">
+        <v>-0.001625016557476266</v>
+      </c>
+      <c r="F102">
+        <v>0.04718187009808792</v>
+      </c>
+      <c r="G102">
+        <v>0.0189864898372151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
